--- a/evaluations/manual/pl-marker_ace05_bert_RE_jun17_eval.xlsx
+++ b/evaluations/manual/pl-marker_ace05_bert_RE_jun17_eval.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kpmea\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E890534-F891-4050-AD23-2A1D9A186D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3509A3FB-4BA7-447F-BD8F-C88F8349D3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3738,7 +3738,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3746,20 +3746,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -4182,7 +4174,7 @@
       <c r="S2" t="s">
         <v>1191</v>
       </c>
-      <c r="T2" s="4"/>
+      <c r="T2" s="3"/>
     </row>
     <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.35">
       <c r="A3">
@@ -4240,7 +4232,7 @@
       <c r="T3" t="s">
         <v>1192</v>
       </c>
-      <c r="U3" s="4"/>
+      <c r="U3" s="3"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -4327,16 +4319,16 @@
       <c r="I5" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3">
-        <v>1</v>
-      </c>
-      <c r="M5" s="3">
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
         <v>0</v>
       </c>
       <c r="O5" t="s">
@@ -4384,16 +4376,16 @@
       <c r="I6" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="3">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3">
-        <v>1</v>
-      </c>
-      <c r="M6" s="3">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
         <v>0</v>
       </c>
       <c r="O6" t="s">
@@ -4434,16 +4426,16 @@
       <c r="I7" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="3">
-        <v>1</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1</v>
-      </c>
-      <c r="L7" s="3">
-        <v>1</v>
-      </c>
-      <c r="M7" s="3">
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
         <v>0</v>
       </c>
       <c r="O7" t="s">
@@ -4484,13 +4476,13 @@
       <c r="I8" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="3">
-        <v>1</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="M8">
         <v>0</v>
       </c>
       <c r="S8" t="s">
@@ -4528,16 +4520,16 @@
       <c r="I9" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="3">
-        <v>1</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9">
         <v>0</v>
       </c>
     </row>
@@ -4569,16 +4561,16 @@
       <c r="I10" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="3">
-        <v>1</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10">
         <v>0</v>
       </c>
     </row>
@@ -4610,16 +4602,16 @@
       <c r="I11" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="3">
-        <v>1</v>
-      </c>
-      <c r="K11" s="3">
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11">
         <v>0</v>
       </c>
     </row>
@@ -4651,13 +4643,13 @@
       <c r="I12" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="3">
-        <v>1</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="M12">
         <v>0</v>
       </c>
     </row>
@@ -4689,19 +4681,19 @@
       <c r="I13" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="3">
-        <v>1</v>
-      </c>
-      <c r="K13" s="3">
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-      <c r="S13" s="4"/>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -4731,16 +4723,16 @@
       <c r="I14" t="s">
         <v>65</v>
       </c>
-      <c r="J14" s="3">
-        <v>1</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14">
         <v>0</v>
       </c>
     </row>
@@ -4772,13 +4764,13 @@
       <c r="I15" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="3">
-        <v>1</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="M15">
         <v>0</v>
       </c>
     </row>
@@ -4810,16 +4802,16 @@
       <c r="I16" t="s">
         <v>72</v>
       </c>
-      <c r="J16" s="3">
-        <v>1</v>
-      </c>
-      <c r="K16" s="3">
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16">
         <v>0</v>
       </c>
     </row>
@@ -4851,16 +4843,16 @@
       <c r="I17" t="s">
         <v>44</v>
       </c>
-      <c r="J17" s="3">
-        <v>1</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17">
         <v>0</v>
       </c>
       <c r="N17" t="s">
@@ -4895,13 +4887,13 @@
       <c r="I18" t="s">
         <v>78</v>
       </c>
-      <c r="J18" s="3">
-        <v>1</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="M18">
         <v>0</v>
       </c>
     </row>
@@ -4933,13 +4925,13 @@
       <c r="I19" t="s">
         <v>77</v>
       </c>
-      <c r="J19" s="3">
-        <v>1</v>
-      </c>
-      <c r="K19" s="3">
-        <v>1</v>
-      </c>
-      <c r="M19" s="3">
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="M19">
         <v>0</v>
       </c>
       <c r="N19" t="s">
@@ -4947,12 +4939,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A11:N19 A2:I10">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>NOT(EXACT(INDIRECT("B"&amp;ROW()), INDIRECT("B"&amp;ROW()-1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:N10">
+  <conditionalFormatting sqref="A2:N19">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>NOT(EXACT(INDIRECT("B"&amp;ROW()), INDIRECT("B"&amp;ROW()-1)))</formula>
     </cfRule>
@@ -4966,7 +4953,7 @@
   <dimension ref="A1:M369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:M3"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5042,8 +5029,8 @@
         <v>1202</v>
       </c>
       <c r="M2">
-        <f xml:space="preserve"> SUM(J2:J128)</f>
-        <v>127</v>
+        <f xml:space="preserve"> SUM(J2:J369)</f>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -5082,8 +5069,8 @@
         <v>1203</v>
       </c>
       <c r="M3">
-        <f xml:space="preserve"> COUNTIF(J2:J128, "&gt;0")/2748</f>
-        <v>4.1848617176128096E-2</v>
+        <f xml:space="preserve"> COUNTIF(J2:J369, "&gt;0")/2748</f>
+        <v>0.10080058224163027</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">

--- a/evaluations/manual/pl-marker_ace05_bert_RE_jun17_eval.xlsx
+++ b/evaluations/manual/pl-marker_ace05_bert_RE_jun17_eval.xlsx
@@ -18798,8 +18798,8 @@
         <v>21</v>
       </c>
       <c r="Q2" s="2">
-        <f>AVERAGE(J2:J19)</f>
-        <v>1</v>
+        <f>AVERAGE(J2:J1000)</f>
+        <v>0.996031746</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>22</v>
@@ -18854,8 +18854,8 @@
         <v>29</v>
       </c>
       <c r="Q3" s="2">
-        <f> AVERAGE(K2:K19)</f>
-        <v>0.9444444444</v>
+        <f> AVERAGE(K2:K1000)</f>
+        <v>0.9920634921</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>30</v>
@@ -18912,7 +18912,7 @@
         <v>37</v>
       </c>
       <c r="Q4" s="2">
-        <f>AVERAGE(L2:L19)</f>
+        <f>AVERAGE(L2:L1000)</f>
         <v>1</v>
       </c>
       <c r="S4" s="2" t="s">
@@ -18968,7 +18968,7 @@
         <v>44</v>
       </c>
       <c r="Q5" s="2">
-        <f>SUM(M2:M19)</f>
+        <f>SUM(M2:M1000)</f>
         <v>0</v>
       </c>
       <c r="S5" s="2" t="s">
